--- a/docs/_downloads/063da19ee272757d99b8f328b5058b8c/ADIOS_data_template.xlsx
+++ b/docs/_downloads/063da19ee272757d99b8f328b5058b8c/ADIOS_data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris.barker/Hazmat/GitLab/oil_database/adios_db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7402A10A-0640-834A-951B-4AF492DA5A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B488C10D-1315-3341-B524-DB4685041BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="2520" windowWidth="25600" windowHeight="14400" xr2:uid="{A4891382-C4C2-C649-BC90-83075B8F427D}"/>
+    <workbookView xWindow="2860" yWindow="1960" windowWidth="38700" windowHeight="14840" xr2:uid="{A4891382-C4C2-C649-BC90-83075B8F427D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="215">
   <si>
     <t>ADIOS Data Model Version</t>
   </si>
@@ -587,6 +587,90 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>Environmental Behavior</t>
+  </si>
+  <si>
+    <t>Emulsion Properties</t>
+  </si>
+  <si>
+    <t>Visual Stability</t>
+  </si>
+  <si>
+    <t>Unstable</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Mesostable</t>
+  </si>
+  <si>
+    <t>Entrained</t>
+  </si>
+  <si>
+    <t>Did not form</t>
+  </si>
+  <si>
+    <t>Unknown stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Emulsion 1</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>(unitless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Visual Stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Water Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Complex Viscosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Complex Modulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Storage Modulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loss Modulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tan Delta (V/E)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Kinematic Viscosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Viscosity at temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dynamic Viscosity</t>
   </si>
 </sst>
 </file>
@@ -984,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AE41B5-EBD4-784F-86F2-E9CEA1F05E22}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1718,6 +1802,159 @@
       </c>
       <c r="B87" s="2"/>
     </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -1728,12 +1965,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16E494EB-8F6C-C642-91BA-EAB123553603}">
           <x14:formula1>
             <xm:f>'Pick List Data'!$B$6:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E53:E68 E33:E35 D21 C50 E38:E41 E43:E45 E24:E26 E28:E30</xm:sqref>
+          <xm:sqref>E53:E68 E33:E35 D21 C50 E38:E41 E43:E45 E24:E26 E28:E30 C94 E104:E107 E109:E111</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1033A37D-2D0D-F04D-9BEA-7F24863237D0}">
           <x14:formula1>
@@ -1745,13 +1982,13 @@
           <x14:formula1>
             <xm:f>'Pick List Data'!$D$6:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C38</xm:sqref>
+          <xm:sqref>C38 C104:C106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FE116B8-5867-7C4D-BE9F-83D0035A698F}">
           <x14:formula1>
             <xm:f>'Pick List Data'!$F$6:$F$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C71:C74 D82:D83 C51 D20 D78:D79 C53:C68</xm:sqref>
+          <xm:sqref>C71:C74 D82:D83 C51 D20 D78:D79 C53:C68 C96</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0BDD9F5B-C4F1-C24B-AF14-33A5AF4296F8}">
           <x14:formula1>
@@ -1781,7 +2018,7 @@
           <x14:formula1>
             <xm:f>'Pick List Data'!$E$6:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C43:C45</xm:sqref>
+          <xm:sqref>C43:C45 C97 C109:C111</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1912201-6DDE-C248-B538-305BA8FBF0C5}">
           <x14:formula1>
@@ -1795,6 +2032,24 @@
           </x14:formula1>
           <xm:sqref>C28:C30</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DBD49E76-C41E-9A40-BEE3-0BEF123FC8E4}">
+          <x14:formula1>
+            <xm:f>'Pick List Data'!$J$6:$J$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B95</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C79C8E7-C6A7-5347-B5A2-9093B26DF36C}">
+          <x14:formula1>
+            <xm:f>'Pick List Data'!$H$6:$H$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C98:C100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60E42108-5C6B-E248-A09B-7B977969C6EC}">
+          <x14:formula1>
+            <xm:f>'Pick List Data'!$K$6:$K$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>C93</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1803,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E050F40-439B-F84D-84F4-6A0869532376}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B1" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1819,17 +2074,17 @@
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1857,8 +2112,14 @@
       <c r="I5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1886,8 +2147,14 @@
       <c r="I6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -1912,8 +2179,14 @@
       <c r="I7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>54</v>
       </c>
@@ -1938,8 +2211,14 @@
       <c r="I8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>73</v>
       </c>
@@ -1952,8 +2231,14 @@
       <c r="I9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>74</v>
       </c>
@@ -1963,8 +2248,11 @@
       <c r="I10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1974,13 +2262,16 @@
       <c r="I11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -1988,7 +2279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -1996,7 +2287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -2004,7 +2295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
